--- a/Documentation/Sound Pitches.xlsx
+++ b/Documentation/Sound Pitches.xlsx
@@ -24,18 +24,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Instructions</t>
-  </si>
-  <si>
-    <t>Cycles</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Pitch</t>
   </si>
   <si>
     <t>Loop Count</t>
+  </si>
+  <si>
+    <t>Cycles per toggle</t>
+  </si>
+  <si>
+    <t>Cycles per delay loop</t>
+  </si>
+  <si>
+    <t>Instr/Half Cycle</t>
+  </si>
+  <si>
+    <t>CPU Cycles/Full Cycle</t>
+  </si>
+  <si>
+    <t>CPU Clock</t>
   </si>
 </sst>
 </file>
@@ -43,7 +52,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -88,7 +97,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -408,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,287 +428,305 @@
     <col min="1" max="16384" width="20.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <f>A2*6</f>
-        <v>6</v>
+        <f>A2*$F$3+$F$2</f>
+        <v>14</v>
       </c>
       <c r="C2" s="1">
-        <f>B2*16</f>
-        <v>96</v>
+        <f>B2*8*2*2</f>
+        <v>448</v>
       </c>
       <c r="D2" s="2">
-        <f>1000000/2/C2</f>
-        <v>5208.333333333333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <f>$F$4/C2</f>
+        <v>2232.1428571428573</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:B40" si="0">A3*6</f>
+        <f t="shared" ref="B3:B59" si="0">A3*$F$3+$F$2</f>
+        <v>17</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C59" si="1">B3*8*2*2</f>
+        <v>544</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D59" si="2">$F$4/C3</f>
+        <v>1838.2352941176471</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A59" si="3">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="1"/>
+        <v>640</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="2"/>
+        <v>1562.5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="1"/>
+        <v>736</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="2"/>
+        <v>1358.695652173913</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="1"/>
+        <v>832</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="2"/>
+        <v>1201.9230769230769</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="1"/>
+        <v>928</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="2"/>
+        <v>1077.5862068965516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="1"/>
+        <v>1024</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="2"/>
+        <v>976.5625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="1"/>
+        <v>1120</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="2"/>
+        <v>892.85714285714289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="1"/>
+        <v>1216</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="2"/>
+        <v>822.36842105263156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="1"/>
+        <v>1312</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="2"/>
+        <v>762.19512195121956</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="1"/>
+        <v>1408</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="2"/>
+        <v>710.22727272727275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="C3" s="1">
-        <f t="shared" ref="C3:C40" si="1">B3*16</f>
-        <v>192</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D40" si="2">1000000/2/C3</f>
-        <v>2604.1666666666665</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <f t="shared" ref="A4:A40" si="3">A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C4" s="1">
-        <f t="shared" si="1"/>
-        <v>288</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="2"/>
-        <v>1736.1111111111111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C5" s="1">
-        <f t="shared" si="1"/>
-        <v>384</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="2"/>
-        <v>1302.0833333333333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" si="1"/>
-        <v>480</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="2"/>
-        <v>1041.6666666666667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="1"/>
-        <v>576</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="2"/>
-        <v>868.05555555555554</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" si="1"/>
-        <v>672</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="2"/>
-        <v>744.04761904761904</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="C9" s="1">
-        <f t="shared" si="1"/>
-        <v>768</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="2"/>
-        <v>651.04166666666663</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" si="1"/>
-        <v>864</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="2"/>
-        <v>578.7037037037037</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" si="1"/>
-        <v>960</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="2"/>
-        <v>520.83333333333337</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" si="1"/>
-        <v>1056</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="2"/>
-        <v>473.4848484848485</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="1"/>
-        <v>1152</v>
+        <v>1504</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="2"/>
-        <v>434.02777777777777</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>664.89361702127655</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="1"/>
-        <v>1248</v>
+        <v>1600</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="2"/>
-        <v>400.64102564102564</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="1"/>
-        <v>1344</v>
+        <v>1696</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="2"/>
-        <v>372.02380952380952</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>589.62264150943395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="1"/>
-        <v>1440</v>
+        <v>1792</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="2"/>
-        <v>347.22222222222223</v>
+        <v>558.03571428571433</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -709,15 +736,15 @@
       </c>
       <c r="B17" s="1">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="1"/>
-        <v>1536</v>
+        <v>1888</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="2"/>
-        <v>325.52083333333331</v>
+        <v>529.66101694915255</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -727,15 +754,15 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="1"/>
-        <v>1632</v>
+        <v>1984</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="2"/>
-        <v>306.37254901960785</v>
+        <v>504.03225806451616</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -745,15 +772,15 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="1"/>
-        <v>1728</v>
+        <v>2080</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="2"/>
-        <v>289.35185185185185</v>
+        <v>480.76923076923077</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -763,15 +790,15 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="1"/>
-        <v>1824</v>
+        <v>2176</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="2"/>
-        <v>274.12280701754383</v>
+        <v>459.55882352941177</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -781,15 +808,15 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="1"/>
-        <v>1920</v>
+        <v>2272</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="2"/>
-        <v>260.41666666666669</v>
+        <v>440.14084507042253</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -799,15 +826,15 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" si="0"/>
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="1"/>
-        <v>2016</v>
+        <v>2368</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="2"/>
-        <v>248.01587301587301</v>
+        <v>422.29729729729729</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -817,15 +844,15 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="1"/>
-        <v>2112</v>
+        <v>2464</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="2"/>
-        <v>236.74242424242425</v>
+        <v>405.84415584415586</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -835,15 +862,15 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" si="0"/>
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="1"/>
-        <v>2208</v>
+        <v>2560</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="2"/>
-        <v>226.44927536231884</v>
+        <v>390.625</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -853,15 +880,15 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="1"/>
-        <v>2304</v>
+        <v>2656</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="2"/>
-        <v>217.01388888888889</v>
+        <v>376.50602409638554</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -871,15 +898,15 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="1"/>
-        <v>2400</v>
+        <v>2752</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="2"/>
-        <v>208.33333333333334</v>
+        <v>363.37209302325579</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -889,15 +916,15 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" si="0"/>
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="1"/>
-        <v>2496</v>
+        <v>2848</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="2"/>
-        <v>200.32051282051282</v>
+        <v>351.12359550561797</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -907,15 +934,15 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" si="0"/>
-        <v>162</v>
+        <v>92</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="1"/>
-        <v>2592</v>
+        <v>2944</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="2"/>
-        <v>192.90123456790124</v>
+        <v>339.67391304347825</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -925,15 +952,15 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" si="0"/>
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="1"/>
-        <v>2688</v>
+        <v>3040</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="2"/>
-        <v>186.01190476190476</v>
+        <v>328.94736842105266</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -943,15 +970,15 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" si="0"/>
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="1"/>
-        <v>2784</v>
+        <v>3136</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="2"/>
-        <v>179.59770114942529</v>
+        <v>318.87755102040819</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -961,15 +988,15 @@
       </c>
       <c r="B31" s="1">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="1"/>
-        <v>2880</v>
+        <v>3232</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="2"/>
-        <v>173.61111111111111</v>
+        <v>309.40594059405942</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -979,15 +1006,15 @@
       </c>
       <c r="B32" s="1">
         <f t="shared" si="0"/>
-        <v>186</v>
+        <v>104</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="1"/>
-        <v>2976</v>
+        <v>3328</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" si="2"/>
-        <v>168.01075268817203</v>
+        <v>300.48076923076923</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -997,15 +1024,15 @@
       </c>
       <c r="B33" s="1">
         <f t="shared" si="0"/>
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="1"/>
-        <v>3072</v>
+        <v>3424</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" si="2"/>
-        <v>162.76041666666666</v>
+        <v>292.05607476635515</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1015,15 +1042,15 @@
       </c>
       <c r="B34" s="1">
         <f t="shared" si="0"/>
-        <v>198</v>
+        <v>110</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="1"/>
-        <v>3168</v>
+        <v>3520</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" si="2"/>
-        <v>157.82828282828282</v>
+        <v>284.09090909090907</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1033,15 +1060,15 @@
       </c>
       <c r="B35" s="1">
         <f t="shared" si="0"/>
-        <v>204</v>
+        <v>113</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="1"/>
-        <v>3264</v>
+        <v>3616</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" si="2"/>
-        <v>153.18627450980392</v>
+        <v>276.54867256637169</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1051,15 +1078,15 @@
       </c>
       <c r="B36" s="1">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>116</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="1"/>
-        <v>3360</v>
+        <v>3712</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="2"/>
-        <v>148.8095238095238</v>
+        <v>269.39655172413791</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1069,15 +1096,15 @@
       </c>
       <c r="B37" s="1">
         <f t="shared" si="0"/>
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="1"/>
-        <v>3456</v>
+        <v>3808</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" si="2"/>
-        <v>144.67592592592592</v>
+        <v>262.60504201680675</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1087,15 +1114,15 @@
       </c>
       <c r="B38" s="1">
         <f t="shared" si="0"/>
-        <v>222</v>
+        <v>122</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="1"/>
-        <v>3552</v>
+        <v>3904</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" si="2"/>
-        <v>140.76576576576576</v>
+        <v>256.14754098360658</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1105,15 +1132,15 @@
       </c>
       <c r="B39" s="1">
         <f t="shared" si="0"/>
-        <v>228</v>
+        <v>125</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="1"/>
-        <v>3648</v>
+        <v>4000</v>
       </c>
       <c r="D39" s="2">
         <f t="shared" si="2"/>
-        <v>137.06140350877192</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1123,15 +1150,357 @@
       </c>
       <c r="B40" s="1">
         <f t="shared" si="0"/>
-        <v>234</v>
+        <v>128</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" si="1"/>
-        <v>3744</v>
+        <v>4096</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" si="2"/>
-        <v>133.54700854700855</v>
+        <v>244.140625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="1"/>
+        <v>4192</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="2"/>
+        <v>238.54961832061068</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="1"/>
+        <v>4288</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="2"/>
+        <v>233.20895522388059</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="1"/>
+        <v>4384</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="2"/>
+        <v>228.10218978102191</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="1"/>
+        <v>4480</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="2"/>
+        <v>223.21428571428572</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="1"/>
+        <v>4576</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="2"/>
+        <v>218.53146853146853</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="1"/>
+        <v>4672</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="2"/>
+        <v>214.04109589041096</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="1"/>
+        <v>4768</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="2"/>
+        <v>209.73154362416108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="1"/>
+        <v>4864</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" si="2"/>
+        <v>205.59210526315789</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" si="1"/>
+        <v>4960</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" si="2"/>
+        <v>201.61290322580646</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" si="1"/>
+        <v>5056</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" si="2"/>
+        <v>197.78481012658227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <f t="shared" si="0"/>
+        <v>161</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="1"/>
+        <v>5152</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" si="2"/>
+        <v>194.09937888198758</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="1"/>
+        <v>5248</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" si="2"/>
+        <v>190.54878048780489</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="1"/>
+        <v>5344</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="2"/>
+        <v>187.12574850299401</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="1"/>
+        <v>5440</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="2"/>
+        <v>183.8235294117647</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <f t="shared" si="0"/>
+        <v>173</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="1"/>
+        <v>5536</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" si="2"/>
+        <v>180.635838150289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="1"/>
+        <v>5632</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" si="2"/>
+        <v>177.55681818181819</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <f t="shared" si="0"/>
+        <v>179</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="1"/>
+        <v>5728</v>
+      </c>
+      <c r="D57" s="2">
+        <f t="shared" si="2"/>
+        <v>174.58100558659217</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <f t="shared" si="0"/>
+        <v>182</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="1"/>
+        <v>5824</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" si="2"/>
+        <v>171.7032967032967</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="1"/>
+        <v>5920</v>
+      </c>
+      <c r="D59" s="2">
+        <f t="shared" si="2"/>
+        <v>168.91891891891891</v>
       </c>
     </row>
   </sheetData>
